--- a/Hobol/0688_2_3/CD/0688_2_3 Szolgalmi jog koord.xlsx
+++ b/Hobol/0688_2_3/CD/0688_2_3 Szolgalmi jog koord.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Munka\Hobol\0688_2_3\CD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="7245" tabRatio="334"/>
   </bookViews>
@@ -18,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>Pontkód</t>
   </si>
@@ -184,12 +179,93 @@
   <si>
     <t>32/14/2019</t>
   </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>550481.060</t>
+  </si>
+  <si>
+    <t>73269.060</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>550617.140</t>
+  </si>
+  <si>
+    <t>73572.540</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>551026.420</t>
+  </si>
+  <si>
+    <t>73928.130</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>551177.930</t>
+  </si>
+  <si>
+    <t>74058.520</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>551299.770</t>
+  </si>
+  <si>
+    <t>73885.350</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>551148.550</t>
+  </si>
+  <si>
+    <t>73754.560</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>550610.400</t>
+  </si>
+  <si>
+    <t>73299.560</t>
+  </si>
+  <si>
+    <t>20003</t>
+  </si>
+  <si>
+    <t>74058.500</t>
+  </si>
+  <si>
+    <t>20004</t>
+  </si>
+  <si>
+    <t>551299.760</t>
+  </si>
+  <si>
+    <t>73885.320</t>
+  </si>
+  <si>
+    <t>szántó széle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -326,6 +402,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,7 +412,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -397,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,10 +505,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,7 +539,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,14 +714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L21" sqref="L21:R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="12" customWidth="1"/>
@@ -671,7 +745,7 @@
     <col min="40" max="40" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -721,7 +795,7 @@
       <c r="AM1" s="8"/>
       <c r="AN1" s="9"/>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="2" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="12"/>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -762,16 +836,16 @@
       <c r="AM2" s="8"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="7" t="s">
         <v>51</v>
       </c>
@@ -807,7 +881,7 @@
       <c r="AM3" s="8"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -820,10 +894,10 @@
       <c r="K4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
@@ -841,7 +915,7 @@
       <c r="AM4" s="8"/>
       <c r="AN4" s="9"/>
     </row>
-    <row r="5" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -862,10 +936,10 @@
       <c r="K5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
       <c r="AA5" s="25"/>
@@ -883,7 +957,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="9"/>
     </row>
-    <row r="6" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
@@ -901,13 +975,13 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
+      <c r="K6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
       <c r="AA6" s="25"/>
@@ -925,7 +999,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="9"/>
     </row>
-    <row r="7" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>19</v>
       </c>
@@ -943,13 +1017,13 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
+      <c r="K7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
       <c r="AA7" s="25"/>
@@ -967,7 +1041,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="9"/>
     </row>
-    <row r="8" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
@@ -985,13 +1059,13 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
+      <c r="K8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="25"/>
@@ -1009,7 +1083,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="9"/>
     </row>
-    <row r="9" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -1019,13 +1093,13 @@
       <c r="H9" s="24"/>
       <c r="I9" s="7"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
+      <c r="K9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
       <c r="AA9" s="25"/>
@@ -1043,25 +1117,25 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="9"/>
     </row>
-    <row r="10" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="7"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
+      <c r="K10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
       <c r="AA10" s="25"/>
@@ -1079,7 +1153,7 @@
       <c r="AM10" s="8"/>
       <c r="AN10" s="9"/>
     </row>
-    <row r="11" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1089,13 +1163,13 @@
       <c r="H11" s="16"/>
       <c r="I11" s="7"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
+      <c r="K11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
       <c r="AA11" s="25"/>
@@ -1113,7 +1187,7 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="9"/>
     </row>
-    <row r="12" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
@@ -1131,13 +1205,13 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
+      <c r="K12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
       <c r="AA12" s="25"/>
@@ -1155,7 +1229,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="9"/>
     </row>
-    <row r="13" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1173,13 +1247,13 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
+      <c r="K13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
@@ -1197,7 +1271,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="9"/>
     </row>
-    <row r="14" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
@@ -1239,7 +1313,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="9"/>
     </row>
-    <row r="15" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>14</v>
       </c>
@@ -1281,7 +1355,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="9"/>
     </row>
-    <row r="16" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>33</v>
       </c>
@@ -1323,7 +1397,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="9"/>
     </row>
-    <row r="17" spans="2:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
@@ -1365,7 +1439,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="9"/>
     </row>
-    <row r="18" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:40" ht="14.25" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>39</v>
       </c>
@@ -1386,7 +1460,7 @@
       <c r="AB18" s="24"/>
       <c r="AC18" s="24"/>
     </row>
-    <row r="19" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:40" ht="14.25" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>42</v>
       </c>
@@ -1407,7 +1481,7 @@
       <c r="AB19" s="24"/>
       <c r="AC19" s="24"/>
     </row>
-    <row r="20" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:40" ht="14.25" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>45</v>
       </c>
@@ -1428,7 +1502,7 @@
       <c r="AB20" s="24"/>
       <c r="AC20" s="24"/>
     </row>
-    <row r="21" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:40" ht="14.25" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1523,7 @@
       <c r="AB21" s="24"/>
       <c r="AC21" s="24"/>
     </row>
-    <row r="22" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:40" ht="14.25" customHeight="1">
       <c r="G22" s="13"/>
       <c r="H22" s="7"/>
       <c r="Z22" s="24"/>
@@ -1457,16 +1531,16 @@
       <c r="AB22" s="24"/>
       <c r="AC22" s="24"/>
     </row>
-    <row r="23" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="26" t="s">
+    <row r="23" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B23" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
       <c r="Z23" s="24"/>
       <c r="AA23" s="24"/>
       <c r="AB23" s="24"/>
@@ -1479,7 +1553,7 @@
       <c r="AM23"/>
       <c r="AN23"/>
     </row>
-    <row r="24" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:40" ht="14.25" customHeight="1">
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -1499,193 +1573,292 @@
       <c r="AM24"/>
       <c r="AN24"/>
     </row>
-    <row r="25" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B25" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" s="21"/>
+      <c r="D25" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="E25" s="21"/>
+      <c r="F25" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="G25" s="21"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="Z25" s="24"/>
       <c r="AA25" s="24"/>
       <c r="AB25" s="24"/>
       <c r="AC25" s="24"/>
     </row>
-    <row r="26" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B26" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="C26" s="21"/>
+      <c r="D26" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="E26" s="21"/>
+      <c r="F26" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="Z26" s="24"/>
       <c r="AA26" s="24"/>
       <c r="AB26" s="24"/>
       <c r="AC26" s="24"/>
     </row>
-    <row r="27" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B27" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" s="21"/>
+      <c r="D27" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="E27" s="21"/>
+      <c r="F27" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="G27" s="21"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="Z27" s="24"/>
       <c r="AA27" s="24"/>
       <c r="AB27" s="24"/>
       <c r="AC27" s="24"/>
     </row>
-    <row r="28" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B28" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="C28" s="21"/>
+      <c r="D28" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="E28" s="21"/>
+      <c r="F28" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="Z28" s="24"/>
       <c r="AA28" s="24"/>
       <c r="AB28" s="24"/>
       <c r="AC28" s="24"/>
     </row>
-    <row r="29" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B29" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="C29" s="21"/>
+      <c r="D29" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="E29" s="21"/>
+      <c r="F29" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="G29" s="21"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B30" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="C30" s="22"/>
+      <c r="D30" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="E30" s="22"/>
+      <c r="F30" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="G30" s="22"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B31" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B32" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="C32" s="23"/>
+      <c r="D32" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="E32" s="23"/>
+      <c r="F32" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="G32" s="23"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B33" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="C33" s="19"/>
+      <c r="D33" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E33" s="19"/>
+      <c r="F33" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="G33" s="19"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="14.25" customHeight="1">
       <c r="G34" s="13"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="14.25" customHeight="1">
       <c r="G35" s="13"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="14.25" customHeight="1">
       <c r="G36" s="13"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="14.25" customHeight="1">
       <c r="G37" s="13"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="14.25" customHeight="1">
       <c r="G38" s="13"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="14.25" customHeight="1">
       <c r="C39" s="20"/>
       <c r="E39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="14.25" customHeight="1">
       <c r="C40" s="18"/>
       <c r="E40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="14.25" customHeight="1">
       <c r="C41" s="17"/>
       <c r="E41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="14.25" customHeight="1">
       <c r="C42" s="17"/>
       <c r="E42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="14.25" customHeight="1">
       <c r="C43" s="17"/>
       <c r="E43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="14.25" customHeight="1">
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="14.25" customHeight="1">
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="14.25" customHeight="1">
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="14.25" customHeight="1">
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="14.25" customHeight="1">
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8" ht="14.25" customHeight="1">
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8" ht="14.25" customHeight="1">
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:8" ht="14.25" customHeight="1">
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:8" ht="14.25" customHeight="1">
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:8" ht="14.25" customHeight="1">
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:8" ht="14.25" customHeight="1">
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:8" ht="14.25" customHeight="1">
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:8" ht="14.25" customHeight="1">
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:8" ht="14.25" customHeight="1">
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:8" ht="14.25" customHeight="1">
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:8" ht="14.25" customHeight="1">
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:8" ht="14.25" customHeight="1">
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:8" ht="14.25" customHeight="1">
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:8" ht="14.25" customHeight="1">
       <c r="H62" s="7"/>
     </row>
-    <row r="92" spans="35:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="35:35" ht="14.25" customHeight="1">
       <c r="AI92" s="1"/>
     </row>
-    <row r="93" spans="35:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="35:35" ht="14.25" customHeight="1">
       <c r="AI93" s="1"/>
     </row>
-    <row r="94" spans="35:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="35:35" ht="14.25" customHeight="1">
       <c r="AI94" s="1"/>
     </row>
-    <row r="95" spans="35:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="35:35" ht="14.25" customHeight="1">
       <c r="AI95" s="1"/>
     </row>
-    <row r="96" spans="35:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="35:35" ht="14.25" customHeight="1">
       <c r="AI96" s="1"/>
     </row>
   </sheetData>
@@ -1706,12 +1879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
